--- a/状态机 链接 条件 说明.xlsx
+++ b/状态机 链接 条件 说明.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity project\Demo_M源文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity project\Demo_M源文件\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6551F139-2A6A-4EAF-AF6E-E57E20032A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807290B9-256E-43F5-806F-CCE50FFE5240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21225" yWindow="990" windowWidth="28965" windowHeight="19680" tabRatio="929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22215" yWindow="1995" windowWidth="28965" windowHeight="19680" tabRatio="929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="状态机 条件 链接" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="368">
   <si>
     <t>From</t>
   </si>
@@ -507,11 +507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>向墙壁前跳 （按住 D +按住 K）角色跳跃 ，靠近墙壁的时候，再次按K角色踩墙，（逻辑上角色已经转过来，动画要等player_jump_turn_wall播完）踩墙后角色向左上方跳跃player_jump_forward，这个跳跃无法控制，
-等player_jump_forward的某一帧才可以像正常跳跃再空中的自由移动操作，跳跃到最高点播放player_jump_down落下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>踩墙后向反上方跳跃player_jump_forward期间操作无用，除了跳跃攻击player_jump_attack、player_jump_downForward_attack可以打断，打断后自由操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -806,17 +801,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IsDucking 
-MoveSpeed&lt;0.01
-IsGettingUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUE
-FALSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IsGrounded
 MoveSpeed&gt;0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -917,9 +901,6 @@
   </si>
   <si>
     <t>player_jump_forward</t>
-  </si>
-  <si>
-    <t>player_jump_ground</t>
   </si>
   <si>
     <t>player_jump_ground</t>
@@ -1319,6 +1300,57 @@
   </si>
   <si>
     <t xml:space="preserve">垂直跳跃到一定高度时候前按AD 会由player_jump_up  切换  player_jump_forward </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向墙壁前跳 （按住 D +按住 K）角色跳跃 靠近墙壁的时候，再次按K角色踩墙，（逻辑上角色已经转过来，动画要等player_jump_turn_wall播完）踩墙后角色向左上方跳跃player_jump_forward，这个跳跃无法控制，
+等player_jump_forward的某一帧（自由配置）才可以像正常跳跃再空中的允许玩家自由移动操作，跳跃到最高点播放player_jump_down落下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsGrounded</t>
+  </si>
+  <si>
+    <t>IsDucking 
+MoveSpeed&lt;0.01
+IsGettingUp
+IsGrounded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE
+FALSE
+TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IsGrounded
+</t>
+  </si>
+  <si>
+    <t>MoveSpeed&lt;0.01
+IsGrounded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed&gt;0.01
+IsGrounded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_jump_ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trig_Land</t>
+  </si>
+  <si>
+    <t>Trig_Land</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1380,7 +1412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1390,6 +1422,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3C3C3C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,7 +1502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1507,22 +1551,31 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1806,11 +1859,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I235"/>
+  <dimension ref="A1:J237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G90" sqref="G90"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1821,60 +1874,62 @@
     <col min="4" max="4" width="7.375" style="13" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="13" customWidth="1"/>
     <col min="6" max="6" width="14.625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="22.375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="25.375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="29" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="13"/>
+    <col min="7" max="8" width="22.375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="25.375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="29" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+    <row r="1" spans="1:10" s="25" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>290</v>
-      </c>
       <c r="B3" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>6</v>
@@ -1883,185 +1938,180 @@
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="B4" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="11" t="s">
+    </row>
+    <row r="6" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="11" t="s">
+      <c r="J11" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>222</v>
@@ -2072,1005 +2122,1021 @@
       <c r="E12" s="11">
         <v>0</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="J14" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="11" t="s">
+    <row r="18" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="D13" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="C21" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="B22" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="11" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D25" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="11" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="11" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+      <c r="B32" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D34" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D36" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
+      <c r="B38" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="1:8" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E40" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="11" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="20"/>
+      <c r="B44" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="E44" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="11">
+        <v>1</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="11" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="20"/>
+      <c r="B47" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D47" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="11">
+        <v>1</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11" t="s">
+      <c r="E51" s="11">
+        <v>0</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D54" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="11">
+        <v>1</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="A55" s="20"/>
+      <c r="B55" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D55" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="11">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D58" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11" t="s">
+      <c r="E59" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="11" t="s">
+      <c r="E60" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="B61" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D62" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E63" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E64" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="20"/>
+      <c r="B65" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D65" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="20"/>
+      <c r="B67" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="C67" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D67" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="1:8" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E69" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="11">
-        <v>1</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D23" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="11" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="D24" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="11" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="D70" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E71" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E72" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E73" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="20"/>
+      <c r="B74" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D28" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="11" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="D74" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E75" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D76" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D32" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D34" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D35" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E37" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" spans="1:7" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="E39" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="11" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D40" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D41" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E43" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-    </row>
-    <row r="45" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D45" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" s="11">
-        <v>1</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="11" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D46" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" s="11">
-        <v>1</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D47" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
-      <c r="B48" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D48" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" s="11">
-        <v>0</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E49" s="11">
-        <v>0</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E50" s="11">
-        <v>0</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
-      <c r="B51" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="11">
-        <v>0</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E52" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D53" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E53" s="11">
-        <v>1</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D54" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E54" s="11">
-        <v>0</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-    </row>
-    <row r="56" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="B56" s="11" t="s">
+      <c r="E77" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="E56" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D57" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="B59" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E59" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E60" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D61" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="19"/>
-      <c r="B62" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E62" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
-      <c r="B63" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E63" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="20"/>
-      <c r="B64" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D64" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D65" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
-      <c r="B66" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D66" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E66" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-    </row>
-    <row r="68" spans="1:7" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E68" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D69" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E69" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="19"/>
-      <c r="B70" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E70" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="19"/>
-      <c r="B71" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E71" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="19"/>
-      <c r="B72" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E72" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="20"/>
-      <c r="B73" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D73" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E74" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D75" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="19"/>
-      <c r="B76" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E76" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
-      <c r="B77" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E77" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
-      <c r="B78" s="11" t="s">
-        <v>244</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>216</v>
@@ -3079,94 +3145,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="20"/>
+    <row r="79" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
       <c r="B79" s="11" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D79" s="11" t="b">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="E79" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-    </row>
-    <row r="81" spans="1:7" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="E81" s="11">
-        <v>1</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="20"/>
+    <row r="80" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="20"/>
+      <c r="B80" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" spans="1:8" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="19" t="s">
+        <v>247</v>
+      </c>
       <c r="B82" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D82" s="11" t="b">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="E82" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="18" t="s">
-        <v>273</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="20"/>
       <c r="B83" s="11" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D83" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E83" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="19" t="s">
+        <v>269</v>
+      </c>
       <c r="B84" s="11" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>217</v>
+        <v>234</v>
+      </c>
+      <c r="D84" s="11" t="b">
+        <v>0</v>
       </c>
       <c r="E84" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="21"/>
       <c r="B85" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>216</v>
@@ -3175,481 +3242,493 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="19"/>
+    <row r="86" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
       <c r="B86" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E86" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E87" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="21"/>
+      <c r="B88" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E88" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="11" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="20"/>
+      <c r="B89" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E89" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E90" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D92" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="20"/>
+      <c r="B93" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E93" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D94" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E95" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="C86" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E86" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="19"/>
-      <c r="B87" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E87" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="11" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="20"/>
-      <c r="B88" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C88" s="11" t="s">
+      <c r="B96" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="E96" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="21"/>
+      <c r="B97" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="E97" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="21"/>
+      <c r="B98" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D98" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="21"/>
+      <c r="B99" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D99" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" s="11">
+        <v>0</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="20"/>
+      <c r="B100" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E100" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="15"/>
+    </row>
+    <row r="102" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D102" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="20"/>
+      <c r="E103" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D104" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="20"/>
+      <c r="E105" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="15"/>
+    </row>
+    <row r="107" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="21"/>
+      <c r="B108" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E108" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="21"/>
+      <c r="B109" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E109" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="21"/>
+      <c r="B110" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D110" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="21"/>
+      <c r="B111" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D111" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="A112" s="21"/>
+      <c r="B112" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D112" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" s="11">
+        <v>0</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="20"/>
+      <c r="B113" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D113" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="B114" s="26"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="15"/>
+    </row>
+    <row r="115" spans="1:8" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="B115" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E88" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E89" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-    </row>
-    <row r="91" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C91" s="11" t="s">
+      <c r="C115" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D91" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E91" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="20"/>
-      <c r="B92" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E92" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C93" s="11" t="s">
+      <c r="D115" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C116" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D93" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E93" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D94" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E94" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C95" s="11" t="s">
+      <c r="D116" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="20"/>
+      <c r="B117" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E117" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D119" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="20"/>
+      <c r="B120" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C120" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E95" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="19"/>
-      <c r="B96" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E96" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="19"/>
-      <c r="B97" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D97" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E97" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="19"/>
-      <c r="B98" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D98" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E98" s="11">
-        <v>0</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="20"/>
-      <c r="B99" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E99" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-    </row>
-    <row r="101" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D101" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E101" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="20"/>
-      <c r="B102" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D102" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E102" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D103" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E103" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="20"/>
-      <c r="B104" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D104" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E104" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-    </row>
-    <row r="106" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E106" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="19"/>
-      <c r="B107" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E107" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="19"/>
-      <c r="B108" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E108" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="19"/>
-      <c r="B109" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="D109" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E109" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="19"/>
-      <c r="B110" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D110" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E110" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A111" s="19"/>
-      <c r="B111" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D111" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E111" s="11">
-        <v>0</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="20"/>
-      <c r="B112" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D112" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E112" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B113" s="15"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-    </row>
-    <row r="114" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D114" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E114" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D115" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E115" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="20"/>
-      <c r="B116" s="11" t="s">
+      <c r="D120" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="C116" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E116" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="B119" s="15"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-    </row>
-    <row r="120" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="122" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:7" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="26"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="15"/>
+    </row>
+    <row r="122" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
     <row r="129" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
     <row r="130" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
     <row r="131" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
@@ -3757,33 +3836,36 @@
     <row r="233" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
     <row r="234" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
     <row r="235" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="236" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="237" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="26">
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A84:A89"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A11:A16"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A106:A112"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A56:A60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3955,7 +4037,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3971,27 +4053,27 @@
     </row>
     <row r="2" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>145</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4017,52 +4099,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4088,37 +4170,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4152,373 +4234,373 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>63</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>347</v>
-      </c>
       <c r="I7" s="16" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4528,22 +4610,22 @@
     </row>
     <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4756,12 +4838,12 @@
     </row>
     <row r="27" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4852,32 +4934,32 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4978,97 +5060,97 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -5395,17 +5477,17 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/状态机 链接 条件 说明.xlsx
+++ b/状态机 链接 条件 说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity project\Demo_M源文件\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807290B9-256E-43F5-806F-CCE50FFE5240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394CEFB1-C8FE-45A8-A292-EB10F6C85BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22215" yWindow="1995" windowWidth="28965" windowHeight="19680" tabRatio="929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5490" yWindow="990" windowWidth="30975" windowHeight="19680" tabRatio="929" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="状态机 条件 链接" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="后退闪避" sheetId="3" r:id="rId9"/>
     <sheet name="魔法攻击" sheetId="5" r:id="rId10"/>
     <sheet name="受击死亡击飞" sheetId="11" r:id="rId11"/>
-    <sheet name="踩墙" sheetId="13" r:id="rId12"/>
+    <sheet name="反跳" sheetId="13" r:id="rId12"/>
     <sheet name="按键打断逻辑" sheetId="10" r:id="rId13"/>
     <sheet name="场景互动" sheetId="14" r:id="rId14"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="391">
   <si>
     <t>From</t>
   </si>
@@ -500,25 +500,6 @@
   </si>
   <si>
     <t xml:space="preserve">按住D键后再按住K键：player_jump_forward </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>踩墙反跳player_jump_turn_wall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>踩墙后向反上方跳跃player_jump_forward期间操作无用，除了跳跃攻击player_jump_attack、player_jump_downForward_attack可以打断，打断后自由操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再踩墙player_jump_turn_wall动画期间角色不能动，并且任何操作都不能打断，必须播完，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以被踩墙的墙面可以用Box Collider 2D Is Trigger  调整范围   检测角色是否可以踩墙反跳</t>
-  </si>
-  <si>
-    <t>还要给一个 斜向上最大跳跃高度,  反方向的位移（相当于 地面的  AD + K  向前跳）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1303,11 +1284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>向墙壁前跳 （按住 D +按住 K）角色跳跃 靠近墙壁的时候，再次按K角色踩墙，（逻辑上角色已经转过来，动画要等player_jump_turn_wall播完）踩墙后角色向左上方跳跃player_jump_forward，这个跳跃无法控制，
-等player_jump_forward的某一帧（自由配置）才可以像正常跳跃再空中的允许玩家自由移动操作，跳跃到最高点播放player_jump_down落下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IsGrounded</t>
   </si>
   <si>
@@ -1351,6 +1327,104 @@
   </si>
   <si>
     <t>Trig_Land</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只触发一次落地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置：空中朝墙前跳（例如朝右 D + K），靠近垂直墙面时，保持 D 不松开，再次按 K 才触发“踩墙转身”。</t>
+  </si>
+  <si>
+    <t>转身阶段：播放 player_jump_turn_wall，全程硬锁（W/A/S/D/J/K/L/I 全部无效），角色重力=0、速度=0，朝向立即转到离墙方向，必须播完，不可被任何操作打断。</t>
+  </si>
+  <si>
+    <t>发射阶段：转身播完后，自动赋予“反方向、斜上”的起跳速度，并切到 player_jump_forward。此时进入“自动斜跳锁定阶段”：仍然不响应操作，但允许按 J 发起空中攻击（jump_attack 或 jump_downForward_attack）来打断并恢复可控。</t>
+  </si>
+  <si>
+    <t>解锁点：在 player_jump_forward 动画的某一帧（动画事件）触发解锁，恢复为正常的空中可控。</t>
+  </si>
+  <si>
+    <t>K 键影响：</t>
+  </si>
+  <si>
+    <t>解锁前松开 K：不影响已给定的 X/Y 速度（速度保持，自然受重力到达顶点再下落）。</t>
+  </si>
+  <si>
+    <t>解锁时仍按着 K：后续按正常跳跃的空中可控（保留持跳的感觉）。</t>
+  </si>
+  <si>
+    <t>解锁后松开 K：按常规“可变跳”规则处理（若有开启 variableJump）。</t>
+  </si>
+  <si>
+    <t>最高点：到达顶点（vy&lt;=0）按你现有落地/下落逻辑切 player_jump_down。</t>
+  </si>
+  <si>
+    <t>二次触发：必须满足“保持朝墙方向输入 + K 的二次按下”；如果松开 D（朝右）再按 K，则不触发；如果只撞墙不按第二次 K，也不触发。</t>
+  </si>
+  <si>
+    <t>检测与输入条件</t>
+  </si>
+  <si>
+    <t>必须空中。</t>
+  </si>
+  <si>
+    <t>必须接触“可踩墙”表面，且表面法线接近水平（|ny| &lt;= sin(15°)），即近似90°垂直墙；实现方式二选一：</t>
+  </si>
+  <si>
+    <t>简化：墙体放在 Wall 层，且用 BoxCollider2D（非必须 trigger），用 Physics2D.Raycast/BoxCast 取命中 normal 检测角度。</t>
+  </si>
+  <si>
+    <t>或者：在墙上放较薄的触发器（IsTrigger=true，Layer=Wall），进入/停留时记录“墙在左/右”。</t>
+  </si>
+  <si>
+    <t>必须保持朝墙的方向键（例如墙在右侧则必须 D 按住）。</t>
+  </si>
+  <si>
+    <t>本帧按下 K（KeyDown）且满足最小冷却（避免连发）。</t>
+  </si>
+  <si>
+    <t>Trig_WallTurn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">跳跃垂直上升中player_jump_up、前跳中player_jump_forward、下降中player_jump_down，三种状态中仅仅可以使用一次二段跳跃player_jump_double，例如：跳跃垂直上升中player_jump_up使用二段跳跃player_jump_double，其他两个状态前跳中player_jump_forward、下降中player_jump_down都不可以使用了
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_jump_double强制覆盖player_jump_up、前跳中player_jump_forward、下降中player_jump_dow三个动画，并且向上一定速度和最大高度</t>
+  </si>
+  <si>
+    <t>按键K，空中时刻可以再按K二段跳，之后再按K失效不能二段跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二段跳和踩墙反跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只触发一次踩墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二段跳与盾牌逻辑和普通跳跃一样，没有角色动画，只是盾牌自己的动画，需要角色二段跳增加事件    已有事件 ：PlayShield、StopShield、PlayShieldStanding、PlayShieldDuck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二段跳按住K时候可以被空中攻击打断，但是不打断上升的速度；如果二段跳中松开K，下落，即使空中攻击也要下落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二段跳与魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二段跳期间像其他条约一样不能后退闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原地竖直二段跳 或者 向前 二段跳都使用player_jump_double这个动画，如果动画播完还没到最高点，一直保持player_jump_double最后一帧，到达最高点落下接 player_jump_down，落地接player_jump_ground</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1551,7 +1625,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1563,19 +1643,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1861,9 +1935,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1880,56 +1954,56 @@
     <col min="11" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="25" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="23" t="s">
+    <row r="1" spans="1:10" s="19" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="24" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="A2" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>286</v>
+      <c r="A3" s="21" t="s">
+        <v>281</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>6</v>
@@ -1938,162 +2012,168 @@
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11" t="s">
+    </row>
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="J5" s="11" t="s">
+    </row>
+    <row r="7" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>296</v>
-      </c>
-    </row>
     <row r="8" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="14" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
       </c>
+      <c r="G8" s="11" t="s">
+        <v>285</v>
+      </c>
       <c r="I8" s="11" t="s">
-        <v>366</v>
+        <v>360</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>285</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>290</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>223</v>
+      <c r="A11" s="25" t="s">
+        <v>218</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D11" s="11" t="b">
         <v>1</v>
@@ -2102,19 +2182,19 @@
         <v>1</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D12" s="11" t="b">
         <v>1</v>
@@ -2123,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D13" s="11" t="b">
         <v>1</v>
@@ -2144,19 +2224,19 @@
         <v>0</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="11" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D14" s="11" t="b">
         <v>1</v>
@@ -2165,57 +2245,57 @@
         <v>0</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="11" t="s">
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>205</v>
-      </c>
       <c r="C17" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D17" s="11" t="b">
         <v>1</v>
@@ -2224,79 +2304,79 @@
         <v>0</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>203</v>
-      </c>
       <c r="J19" s="11" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E20" s="11">
         <v>0</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E21" s="11">
         <v>0</v>
@@ -2305,18 +2385,18 @@
         <v>61</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
-        <v>205</v>
+      <c r="A22" s="25" t="s">
+        <v>200</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D22" s="11" t="b">
         <v>1</v>
@@ -2325,19 +2405,19 @@
         <v>1</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D23" s="11" t="b">
         <v>1</v>
@@ -2346,19 +2426,19 @@
         <v>0</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D24" s="11" t="b">
         <v>1</v>
@@ -2367,249 +2447,255 @@
         <v>0</v>
       </c>
       <c r="I24" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="11" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
+      <c r="B27" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="11" t="s">
+      <c r="C27" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="11" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+      <c r="B29" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="11" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
+      <c r="B30" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="23"/>
+      <c r="B31" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="B32" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
+      <c r="B34" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="D25" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="D34" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="23"/>
+      <c r="B35" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="23"/>
+      <c r="B36" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="11" t="s">
+    <row r="37" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="23"/>
+      <c r="B37" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="11" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D29" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="11" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D30" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
-      <c r="B32" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E32" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="D33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D34" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D35" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" s="11">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>203</v>
-      </c>
       <c r="E37" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E38" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
+      <c r="A39" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
       <c r="H39" s="15"/>
     </row>
     <row r="40" spans="1:8" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E40" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="11" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
-        <v>246</v>
+      <c r="A41" s="21" t="s">
+        <v>241</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D41" s="11" t="b">
         <v>1</v>
@@ -2619,12 +2705,12 @@
       </c>
     </row>
     <row r="42" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D42" s="11" t="b">
         <v>1</v>
@@ -2634,9 +2720,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>6</v>
@@ -2646,41 +2732,41 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E44" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
+      <c r="A45" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
       <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
-        <v>249</v>
+      <c r="A46" s="21" t="s">
+        <v>244</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D46" s="11" t="b">
         <v>1</v>
@@ -2689,16 +2775,16 @@
         <v>1</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="11" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D47" s="11" t="b">
         <v>1</v>
@@ -2707,18 +2793,18 @@
         <v>1</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
-        <v>264</v>
+      <c r="A48" s="21" t="s">
+        <v>259</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D48" s="11" t="b">
         <v>0</v>
@@ -2728,12 +2814,12 @@
       </c>
     </row>
     <row r="49" spans="1:8" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D49" s="11" t="b">
         <v>1</v>
@@ -2742,43 +2828,43 @@
         <v>0</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="11" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E50" s="11">
         <v>0</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="11" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E51" s="11">
         <v>0</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>6</v>
@@ -2787,33 +2873,33 @@
         <v>0</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="11" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E53" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
-        <v>265</v>
+      <c r="A54" s="21" t="s">
+        <v>260</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D54" s="11" t="b">
         <v>1</v>
@@ -2822,152 +2908,152 @@
         <v>1</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C55" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="11">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D55" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E55" s="11">
-        <v>0</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="26" t="s">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E57" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="23"/>
+      <c r="B58" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D58" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="23"/>
+      <c r="B59" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="23"/>
+      <c r="B60" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="22"/>
+      <c r="B61" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="15"/>
-    </row>
-    <row r="57" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B57" s="11" t="s">
+      <c r="D61" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="E57" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D58" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E59" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="11" t="s">
+      <c r="E61" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D62" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="23"/>
+      <c r="B63" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E63" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="23"/>
+      <c r="B64" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E64" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="22"/>
+      <c r="B65" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C60" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E60" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E61" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D62" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E62" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E63" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E64" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="20"/>
-      <c r="B65" s="11" t="s">
-        <v>247</v>
-      </c>
       <c r="C65" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D65" s="11" t="b">
         <v>1</v>
@@ -2977,14 +3063,14 @@
       </c>
     </row>
     <row r="66" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
-        <v>240</v>
+      <c r="A66" s="21" t="s">
+        <v>235</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D66" s="11" t="b">
         <v>1</v>
@@ -2994,12 +3080,12 @@
       </c>
     </row>
     <row r="67" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="20"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="11" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D67" s="11" t="b">
         <v>1</v>
@@ -3009,37 +3095,37 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
+      <c r="A68" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
       <c r="H68" s="15"/>
     </row>
     <row r="69" spans="1:8" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E69" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
-        <v>251</v>
+      <c r="A70" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D70" s="11" t="b">
         <v>0</v>
@@ -3049,45 +3135,45 @@
       </c>
     </row>
     <row r="71" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="11" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E71" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E72" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E73" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="22"/>
+      <c r="B74" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E73" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="20"/>
-      <c r="B74" s="11" t="s">
-        <v>247</v>
-      </c>
       <c r="C74" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D74" s="11" t="b">
         <v>1</v>
@@ -3098,196 +3184,196 @@
     </row>
     <row r="75" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B75" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E75" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D76" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="23"/>
+      <c r="B77" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E77" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="23"/>
+      <c r="B78" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E78" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="23"/>
+      <c r="B79" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E79" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="22"/>
+      <c r="B80" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D80" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" spans="1:8" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="E82" s="11">
+        <v>1</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="22"/>
+      <c r="B83" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="23"/>
+      <c r="B85" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E85" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="23"/>
+      <c r="B86" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E86" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="23"/>
+      <c r="B87" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E87" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="23"/>
+      <c r="B88" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E75" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D76" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="E77" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E78" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E79" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="20"/>
-      <c r="B80" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D80" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E80" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="15"/>
-    </row>
-    <row r="82" spans="1:8" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="E82" s="11">
-        <v>1</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="20"/>
-      <c r="B83" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D83" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D84" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="21"/>
-      <c r="B85" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E85" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E86" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="E87" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="21"/>
-      <c r="B88" s="11" t="s">
+      <c r="C88" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E88" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="11" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="22"/>
+      <c r="B89" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C88" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E88" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="11" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="20"/>
-      <c r="B89" s="11" t="s">
-        <v>264</v>
-      </c>
       <c r="C89" s="11" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E89" s="11">
         <v>0</v>
@@ -3295,36 +3381,36 @@
     </row>
     <row r="90" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B90" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E90" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="E90" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="15"/>
-    </row>
-    <row r="92" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="19" t="s">
-        <v>257</v>
-      </c>
       <c r="B92" s="11" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D92" s="11" t="b">
         <v>1</v>
@@ -3334,12 +3420,12 @@
       </c>
     </row>
     <row r="93" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="20"/>
+      <c r="A93" s="22"/>
       <c r="B93" s="11" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E93" s="11">
         <v>0</v>
@@ -3347,13 +3433,13 @@
     </row>
     <row r="94" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D94" s="11" t="b">
         <v>1</v>
@@ -3364,110 +3450,110 @@
     </row>
     <row r="95" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E95" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="19" t="s">
-        <v>260</v>
+      <c r="A96" s="21" t="s">
+        <v>255</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E96" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="21"/>
+      <c r="A97" s="23"/>
       <c r="B97" s="11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E97" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="21"/>
+      <c r="A98" s="23"/>
       <c r="B98" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D98" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="23"/>
+      <c r="B99" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D99" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" s="11">
+        <v>0</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="22"/>
+      <c r="B100" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C98" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D98" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E98" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="21"/>
-      <c r="B99" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D99" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E99" s="11">
-        <v>0</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="20"/>
-      <c r="B100" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>203</v>
-      </c>
       <c r="E100" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
+      <c r="A101" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
       <c r="H101" s="15"/>
     </row>
     <row r="102" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="19" t="s">
-        <v>284</v>
+      <c r="A102" s="21" t="s">
+        <v>279</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D102" s="11" t="b">
         <v>0</v>
@@ -3477,20 +3563,20 @@
       </c>
     </row>
     <row r="103" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="20"/>
+      <c r="A103" s="22"/>
       <c r="E103" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="19" t="s">
-        <v>283</v>
+      <c r="A104" s="21" t="s">
+        <v>278</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D104" s="11" t="b">
         <v>0</v>
@@ -3500,29 +3586,29 @@
       </c>
     </row>
     <row r="105" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="20"/>
+      <c r="A105" s="22"/>
       <c r="E105" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
+      <c r="A106" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
       <c r="H106" s="15"/>
     </row>
     <row r="107" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>6</v>
@@ -3532,36 +3618,36 @@
       </c>
     </row>
     <row r="108" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="21"/>
+      <c r="A108" s="23"/>
       <c r="B108" s="11" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E108" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="21"/>
+      <c r="A109" s="23"/>
       <c r="B109" s="11" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E109" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="21"/>
+      <c r="A110" s="23"/>
       <c r="B110" s="11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D110" s="11" t="b">
         <v>1</v>
@@ -3571,12 +3657,12 @@
       </c>
     </row>
     <row r="111" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="21"/>
+      <c r="A111" s="23"/>
       <c r="B111" s="11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D111" s="11" t="b">
         <v>1</v>
@@ -3586,12 +3672,12 @@
       </c>
     </row>
     <row r="112" spans="1:8" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A112" s="21"/>
+      <c r="A112" s="23"/>
       <c r="B112" s="11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D112" s="11" t="b">
         <v>1</v>
@@ -3600,16 +3686,16 @@
         <v>0</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="20"/>
+      <c r="A113" s="22"/>
       <c r="B113" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D113" s="11" t="b">
         <v>1</v>
@@ -3619,43 +3705,43 @@
       </c>
     </row>
     <row r="114" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B114" s="26"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="26"/>
+      <c r="A114" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
       <c r="H114" s="15"/>
     </row>
     <row r="115" spans="1:8" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B115" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D115" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B116" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C115" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D115" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E115" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>280</v>
-      </c>
       <c r="C116" s="11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D116" s="11" t="b">
         <v>0</v>
@@ -3665,9 +3751,9 @@
       </c>
     </row>
     <row r="117" spans="1:8" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="20"/>
+      <c r="A117" s="22"/>
       <c r="B117" s="11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>61</v>
@@ -3678,48 +3764,48 @@
     </row>
     <row r="118" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D119" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="22"/>
+      <c r="B120" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D120" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="B119" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="D119" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="20"/>
-      <c r="B120" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="D120" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="B121" s="26"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="26"/>
-      <c r="F121" s="26"/>
-      <c r="G121" s="26"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
       <c r="H121" s="15"/>
     </row>
     <row r="122" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
@@ -3840,6 +3926,16 @@
     <row r="237" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A119:A120"/>
     <mergeCell ref="A107:A113"/>
     <mergeCell ref="A116:A117"/>
@@ -3856,16 +3952,6 @@
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4034,47 +4120,108 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA3DDC7-9323-44EA-A530-1A76D5DF0485}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="179.75" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="5"/>
+    <col min="4" max="2624" width="9" style="5"/>
+    <col min="2625" max="2625" width="36.125" style="5" customWidth="1"/>
+    <col min="2626" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>148</v>
-      </c>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4099,52 +4246,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4170,37 +4317,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4215,7 +4362,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4234,373 +4381,373 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>335</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>340</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>63</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H3" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>322</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H6" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>323</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>343</v>
-      </c>
       <c r="I7" s="16" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G9" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>322</v>
-      </c>
       <c r="I9" s="16" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4610,22 +4757,22 @@
     </row>
     <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4838,12 +4985,12 @@
     </row>
     <row r="27" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4934,32 +5081,32 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5060,97 +5207,97 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5162,17 +5309,65 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C250BF9-908F-45E4-83F3-738D527DA851}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="164" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="164" style="2"/>
+    <col min="1" max="1" width="164" style="2"/>
+    <col min="2" max="2" width="22.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="164" style="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5403,7 +5598,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5477,17 +5672,17 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/状态机 链接 条件 说明.xlsx
+++ b/状态机 链接 条件 说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity project\Demo_M源文件\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394CEFB1-C8FE-45A8-A292-EB10F6C85BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0031D663-A5A3-4D88-913F-E856534EACD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="990" windowWidth="30975" windowHeight="19680" tabRatio="929" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="1110" windowWidth="18945" windowHeight="19680" tabRatio="929" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="状态机 条件 链接" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="后退闪避" sheetId="3" r:id="rId9"/>
     <sheet name="魔法攻击" sheetId="5" r:id="rId10"/>
     <sheet name="受击死亡击飞" sheetId="11" r:id="rId11"/>
-    <sheet name="反跳" sheetId="13" r:id="rId12"/>
+    <sheet name="踩墙反跳" sheetId="13" r:id="rId12"/>
     <sheet name="按键打断逻辑" sheetId="10" r:id="rId13"/>
     <sheet name="场景互动" sheetId="14" r:id="rId14"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="400">
   <si>
     <t>From</t>
   </si>
@@ -1400,31 +1400,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二段跳和踩墙反跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>只触发一次踩墙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二段跳与盾牌逻辑和普通跳跃一样，没有角色动画，只是盾牌自己的动画，需要角色二段跳增加事件    已有事件 ：PlayShield、StopShield、PlayShieldStanding、PlayShieldDuck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二段跳按住K时候可以被空中攻击打断，但是不打断上升的速度；如果二段跳中松开K，下落，即使空中攻击也要下落</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二段跳与魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二段跳期间像其他条约一样不能后退闪避</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原地竖直二段跳 或者 向前 二段跳都使用player_jump_double这个动画，如果动画播完还没到最高点，一直保持player_jump_double最后一帧，到达最高点落下接 player_jump_down，落地接player_jump_ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二段跳与盾牌逻辑和普通跳跃中盾牌一样，没有角色动画，只是盾牌自己的动画，需要角色二段跳增加事件    已有事件 ：PlayShield、StopShield、PlayShieldStanding、PlayShieldDuck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_shield_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldHold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增魔法攻击冷却时间 magicAttackCooldown；在冷却未到前不触发第二次攻击。</t>
+  </si>
+  <si>
+    <t>即使盾处于 idle（地面或空中）时，按住 W 再按 J 依然可以“释放魔法攻击逻辑”（锁定/伤害等），</t>
+  </si>
+  <si>
+    <t>地面与空中都不会播放角色的魔法攻击动画（你现有的 CanPlayMagicAnimOnGround 已经拦掉有盾的情况，保持无动画）。</t>
+  </si>
+  <si>
+    <t>跳跃攻击中不能踩墙反跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二段跳与魔法逻辑和普通跳跃中魔法一样，没有角色动画，只是盾牌自己的动画，可能需要角色二段跳增加事件    已有事件 ：PlayShield、StopShield、PlayShieldStanding、PlayShieldDuck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二段跳和踩墙反跳，再反跳开始player_jump_forward的时候就可以二段跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">groundPoint 触碰 ground 就是地面 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SkyPoint 触碰ground就是 非地面 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groundPoint 先触碰 ground  后  SkyPoint 触碰ground  ，二者都触碰ground，就是地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkyPoint 先触碰ground 后 groundPoint 触碰 ground ，二者都触碰ground，就是地面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1576,9 +1609,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1651,6 +1683,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1933,2023 +1971,2035 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J237"/>
+  <dimension ref="A1:J238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="32.375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="25.875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="13" customWidth="1"/>
-    <col min="7" max="8" width="22.375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="25.375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="29" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="32.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="32.375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="25.875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="12" customWidth="1"/>
+    <col min="7" max="8" width="22.375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="25.375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="29" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="19" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
+    <row r="1" spans="1:10" s="18" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="J1" s="24"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:10" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="22"/>
+      <c r="B4" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D11" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11" t="s">
+      <c r="D11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:10" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
+      <c r="B12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11" t="s">
+      <c r="D12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D13" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11" t="s">
+      <c r="D13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:10" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="D14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="D14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
+      <c r="B15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11" t="s">
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="24"/>
+      <c r="B16" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11" t="s">
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:10" s="10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11" t="s">
+      <c r="D17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="11" t="s">
+    <row r="18" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="D18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="11" t="s">
+    <row r="19" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="24"/>
+      <c r="B19" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11" t="s">
+      <c r="D19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="11" t="s">
+    <row r="20" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="24"/>
+      <c r="B20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E20" s="11">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11" t="s">
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="11" t="s">
+    <row r="21" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="24"/>
+      <c r="B21" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11" t="s">
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+    <row r="22" spans="1:10" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D22" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11">
-        <v>1</v>
-      </c>
-      <c r="I22" s="11" t="s">
+      <c r="D22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D23" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11" t="s">
+      <c r="D23" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="10" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="11" t="s">
+    <row r="24" spans="1:10" s="10" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24"/>
+      <c r="B24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D24" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11" t="s">
+      <c r="D24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="10" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="11" t="s">
+    <row r="25" spans="1:10" s="10" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="24"/>
+      <c r="B25" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="D25" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="D25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="J25" s="11" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="11" t="s">
+      <c r="J25" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="24"/>
+      <c r="B26" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E26" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="11" t="s">
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="24"/>
+      <c r="B27" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="11" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="10" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="E28" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="11" t="s">
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="22"/>
+      <c r="B29" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D29" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="11" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
-      <c r="B30" s="11" t="s">
+      <c r="D29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="10" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="22"/>
+      <c r="B30" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="D30" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0</v>
-      </c>
-      <c r="F30" s="11" t="s">
+      <c r="D30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="11" t="s">
+    <row r="31" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="22"/>
+      <c r="B31" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E31" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="11" t="s">
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="E32" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D33" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23"/>
-      <c r="B34" s="11" t="s">
+      <c r="D33" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
+      <c r="B34" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D34" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="11" t="s">
+      <c r="D34" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="22"/>
+      <c r="B35" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D35" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="11" t="s">
+      <c r="D35" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="10" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="22"/>
+      <c r="B36" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="D36" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" s="11">
-        <v>0</v>
-      </c>
-      <c r="F36" s="11" t="s">
+      <c r="D36" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
-      <c r="B37" s="11" t="s">
+    <row r="37" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="22"/>
+      <c r="B37" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E37" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="11" t="s">
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="15"/>
-    </row>
-    <row r="40" spans="1:8" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="1:8" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E40" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="11" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="E40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="10" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D41" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="23"/>
-      <c r="B42" s="11" t="s">
+      <c r="D41" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="22"/>
+      <c r="B42" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D42" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="23"/>
-      <c r="B43" s="12" t="s">
+      <c r="D42" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
       <c r="B44" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="E44" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
+      <c r="E45" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="15"/>
-    </row>
-    <row r="46" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D46" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" s="11">
-        <v>1</v>
-      </c>
-      <c r="F46" s="11" t="s">
+      <c r="D47" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="10">
+        <v>1</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="11" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
-      <c r="B47" s="11" t="s">
+    <row r="48" spans="1:8" s="10" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="D47" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" s="11">
-        <v>1</v>
-      </c>
-      <c r="F47" s="11" t="s">
+      <c r="D48" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+    <row r="49" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D48" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="23"/>
-      <c r="B49" s="11" t="s">
+      <c r="D49" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="22"/>
+      <c r="B50" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D49" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" s="11">
-        <v>0</v>
-      </c>
-      <c r="F49" s="11" t="s">
+      <c r="D50" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="23"/>
-      <c r="B50" s="11" t="s">
+    <row r="51" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="22"/>
+      <c r="B51" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E50" s="11">
-        <v>0</v>
-      </c>
-      <c r="F50" s="11" t="s">
+      <c r="E51" s="10">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="23"/>
-      <c r="B51" s="11" t="s">
+    <row r="52" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="22"/>
+      <c r="B52" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E51" s="11">
-        <v>0</v>
-      </c>
-      <c r="F51" s="11" t="s">
+      <c r="E52" s="10">
+        <v>0</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="23"/>
-      <c r="B52" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="11">
-        <v>0</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
       <c r="B53" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="10">
+        <v>0</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="10" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="E53" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="21" t="s">
+      <c r="E54" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C55" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D54" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E54" s="11">
-        <v>1</v>
-      </c>
-      <c r="F54" s="11" t="s">
+      <c r="D55" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10">
+        <v>1</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A55" s="22"/>
-      <c r="B55" s="11" t="s">
+    <row r="56" spans="1:8" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D55" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E55" s="11">
-        <v>0</v>
-      </c>
-      <c r="F55" s="11" t="s">
+      <c r="D56" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" s="10">
+        <v>0</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="20" t="s">
+    <row r="57" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="15"/>
-    </row>
-    <row r="57" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="21" t="s">
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E57" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="23"/>
-      <c r="B58" s="11" t="s">
+      <c r="E58" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="22"/>
+      <c r="B59" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D58" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="23"/>
-      <c r="B59" s="11" t="s">
+      <c r="D59" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="22"/>
+      <c r="B60" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E59" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="23"/>
-      <c r="B60" s="11" t="s">
+      <c r="E60" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="22"/>
+      <c r="B61" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E60" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="22"/>
-      <c r="B61" s="11" t="s">
+      <c r="E61" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="E61" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="s">
+      <c r="E62" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D62" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E62" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="23"/>
-      <c r="B63" s="11" t="s">
+      <c r="D63" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="22"/>
+      <c r="B64" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E63" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="23"/>
-      <c r="B64" s="11" t="s">
+      <c r="E64" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="22"/>
+      <c r="B65" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E64" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="22"/>
-      <c r="B65" s="11" t="s">
+      <c r="E65" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="21"/>
+      <c r="B66" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D65" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="21" t="s">
+      <c r="D66" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B67" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D66" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E66" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="22"/>
-      <c r="B67" s="11" t="s">
+      <c r="D67" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="21"/>
+      <c r="B68" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D67" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="20" t="s">
+      <c r="D68" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="15"/>
-    </row>
-    <row r="69" spans="1:8" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="14"/>
+    </row>
+    <row r="70" spans="1:8" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B70" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="E69" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="21" t="s">
+      <c r="E70" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B71" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D70" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="23"/>
-      <c r="B71" s="11" t="s">
+      <c r="D71" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="22"/>
+      <c r="B72" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E71" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="23"/>
-      <c r="B72" s="11" t="s">
+      <c r="E72" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="22"/>
+      <c r="B73" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E72" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="23"/>
-      <c r="B73" s="11" t="s">
+      <c r="E73" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="22"/>
+      <c r="B74" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E73" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
-      <c r="B74" s="11" t="s">
+      <c r="E74" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D74" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="11" t="s">
+      <c r="D75" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B76" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E75" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="21" t="s">
+      <c r="E76" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B77" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C77" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D76" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="23"/>
-      <c r="B77" s="11" t="s">
+      <c r="D77" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="22"/>
+      <c r="B78" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E77" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="23"/>
-      <c r="B78" s="11" t="s">
+      <c r="E78" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="22"/>
+      <c r="B79" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E78" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="23"/>
-      <c r="B79" s="11" t="s">
+      <c r="E79" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="22"/>
+      <c r="B80" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E79" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="22"/>
-      <c r="B80" s="11" t="s">
+      <c r="E80" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D80" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E80" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="20" t="s">
+      <c r="D81" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="15"/>
-    </row>
-    <row r="82" spans="1:8" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="21" t="s">
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="14"/>
+    </row>
+    <row r="83" spans="1:8" s="10" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B83" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="E82" s="11">
-        <v>1</v>
-      </c>
-      <c r="F82" s="11" t="s">
+      <c r="E83" s="10">
+        <v>1</v>
+      </c>
+      <c r="F83" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="22"/>
-      <c r="B83" s="11" t="s">
+    <row r="84" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="21"/>
+      <c r="B84" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D83" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="21" t="s">
+      <c r="D84" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B85" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C85" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D84" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="23"/>
-      <c r="B85" s="11" t="s">
+      <c r="D85" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="22"/>
+      <c r="B86" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E85" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="23"/>
-      <c r="B86" s="11" t="s">
+      <c r="E86" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="22"/>
+      <c r="B87" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C87" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E86" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="23"/>
-      <c r="B87" s="11" t="s">
+      <c r="E87" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="22"/>
+      <c r="B88" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E87" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="23"/>
-      <c r="B88" s="11" t="s">
+      <c r="E88" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="22"/>
+      <c r="B89" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C89" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E88" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="11" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="22"/>
-      <c r="B89" s="11" t="s">
+      <c r="E89" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="21"/>
+      <c r="B90" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C90" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D90" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="E89" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="s">
+      <c r="E90" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B91" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="E90" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="20" t="s">
+      <c r="E91" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="15"/>
-    </row>
-    <row r="92" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="21" t="s">
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="14"/>
+    </row>
+    <row r="93" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B93" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C93" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D92" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E92" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="22"/>
-      <c r="B93" s="11" t="s">
+      <c r="D93" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="21"/>
+      <c r="B94" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C94" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E93" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="11" t="s">
+      <c r="E94" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B95" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C95" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D94" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E94" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="11" t="s">
+      <c r="D95" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E95" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="21" t="s">
+      <c r="E96" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B97" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C97" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D97" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="E96" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="23"/>
-      <c r="B97" s="11" t="s">
+      <c r="E97" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="22"/>
+      <c r="B98" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C98" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D98" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="E97" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="23"/>
-      <c r="B98" s="11" t="s">
+      <c r="E98" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="22"/>
+      <c r="B99" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C99" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D98" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E98" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="23"/>
-      <c r="B99" s="11" t="s">
+      <c r="D99" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="22"/>
+      <c r="B100" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C100" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D99" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E99" s="11">
-        <v>0</v>
-      </c>
-      <c r="F99" s="11" t="s">
+      <c r="D100" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" s="10">
+        <v>0</v>
+      </c>
+      <c r="F100" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="22"/>
-      <c r="B100" s="11" t="s">
+    <row r="101" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="21"/>
+      <c r="B101" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C101" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E100" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="20" t="s">
+      <c r="E101" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="15"/>
-    </row>
-    <row r="102" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="21" t="s">
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="14"/>
+    </row>
+    <row r="103" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B103" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C103" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D102" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E102" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="22"/>
-      <c r="E103" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="21" t="s">
+      <c r="D103" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="21"/>
+      <c r="E104" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B105" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C105" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D104" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E104" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="22"/>
-      <c r="E105" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="20" t="s">
+      <c r="D105" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="21"/>
+      <c r="E106" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="15"/>
-    </row>
-    <row r="107" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="21" t="s">
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="14"/>
+    </row>
+    <row r="108" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B108" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C108" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E107" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="23"/>
-      <c r="B108" s="11" t="s">
+      <c r="E108" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="22"/>
+      <c r="B109" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C109" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E108" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="23"/>
-      <c r="B109" s="11" t="s">
+      <c r="E109" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="22"/>
+      <c r="B110" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C110" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E109" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="23"/>
-      <c r="B110" s="11" t="s">
+      <c r="E110" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="22"/>
+      <c r="B111" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C111" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D110" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E110" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="23"/>
-      <c r="B111" s="11" t="s">
+      <c r="D111" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="22"/>
+      <c r="B112" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C112" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D111" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E111" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A112" s="23"/>
-      <c r="B112" s="11" t="s">
+      <c r="D112" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="A113" s="22"/>
+      <c r="B113" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C113" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D112" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E112" s="11">
-        <v>0</v>
-      </c>
-      <c r="F112" s="11" t="s">
+      <c r="D113" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" s="10">
+        <v>0</v>
+      </c>
+      <c r="F113" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="22"/>
-      <c r="B113" s="11" t="s">
+    <row r="114" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="21"/>
+      <c r="B114" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C114" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D113" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E113" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="20" t="s">
+      <c r="D114" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="B114" s="20"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="20"/>
-      <c r="H114" s="15"/>
-    </row>
-    <row r="115" spans="1:8" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="11" t="s">
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="14"/>
+    </row>
+    <row r="116" spans="1:8" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B116" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C116" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D115" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E115" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="21" t="s">
+      <c r="D116" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B117" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C117" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D116" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E116" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="22"/>
-      <c r="B117" s="11" t="s">
+      <c r="D117" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="21"/>
+      <c r="B118" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C118" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E117" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
+      <c r="E118" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B119" s="10" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="21" t="s">
+    <row r="120" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B120" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C120" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="D119" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="22"/>
-      <c r="B120" s="11" t="s">
+      <c r="D120" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="21"/>
+      <c r="B121" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C121" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D120" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="20" t="s">
+      <c r="D121" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="B121" s="20"/>
-      <c r="C121" s="20"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="20"/>
-      <c r="H121" s="15"/>
-    </row>
-    <row r="122" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="125" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="128" spans="1:8" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="129" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="130" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="131" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="132" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="133" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="134" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="135" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="136" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="137" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="138" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="139" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="140" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="141" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="142" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="143" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="144" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="145" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="146" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="147" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="148" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="149" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="150" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="151" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="152" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="153" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="154" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="155" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="156" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="157" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="158" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="159" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="160" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="161" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="162" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="163" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="164" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="165" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="166" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="167" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="168" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="169" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="170" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="171" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="172" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="173" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="174" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="175" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="176" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="177" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="178" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="179" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="180" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="181" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="182" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="183" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="184" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="185" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="186" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="187" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="188" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="189" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="190" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="191" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="192" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="193" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="194" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="195" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="196" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="197" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="198" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="199" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="200" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="201" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="202" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="203" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="204" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="205" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="206" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="207" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="208" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="209" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="210" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="211" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="212" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="213" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="214" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="215" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="216" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="217" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="218" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="219" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="220" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="221" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="222" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="223" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="224" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="225" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="226" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="227" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="228" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="229" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="230" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="231" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="232" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="233" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="234" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="235" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="236" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
-    <row r="237" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="14"/>
+    </row>
+    <row r="123" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="129" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="130" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="131" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="132" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="133" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="134" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="135" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="136" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="137" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="138" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="139" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="140" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="141" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="142" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="143" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="144" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="145" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="146" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="147" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="148" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="149" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="150" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="151" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="152" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="153" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="154" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="155" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="156" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="157" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="158" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="159" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="160" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="161" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="162" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="163" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="164" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="165" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="166" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="167" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="168" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="169" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="170" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="171" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="172" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="173" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="174" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="175" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="176" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="177" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="178" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="179" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="180" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="181" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="182" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="183" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="184" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="185" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="186" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="187" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="188" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="189" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="190" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="191" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="192" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="193" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="194" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="195" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="196" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="197" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="198" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="199" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="200" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="201" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="202" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="203" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="204" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="205" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="206" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="207" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="208" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="209" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="210" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="211" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="212" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="213" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="214" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="215" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="216" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="217" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="218" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="219" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="220" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="221" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="222" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="223" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="224" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="225" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="226" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="227" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="228" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="229" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="230" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="231" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="232" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="233" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="234" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="235" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="236" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="237" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="238" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A58:A62"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A63:A66"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A107:A113"/>
-    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="A117:A118"/>
     <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A84:A89"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A85:A90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A103:A104"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="A33:A38"/>
   </mergeCells>
@@ -3962,87 +4012,97 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFED6EBD-1112-46B0-AA69-5A6F79B314B6}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="168.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="168.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -4062,52 +4122,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="122.625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="122.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4120,108 +4180,113 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA3DDC7-9323-44EA-A530-1A76D5DF0485}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="179.75" style="5" customWidth="1"/>
-    <col min="4" max="2624" width="9" style="5"/>
-    <col min="2625" max="2625" width="36.125" style="5" customWidth="1"/>
-    <col min="2626" max="16384" width="9" style="5"/>
+    <col min="1" max="3" width="179.75" style="4" customWidth="1"/>
+    <col min="4" max="2624" width="9" style="4"/>
+    <col min="2625" max="2625" width="36.125" style="4" customWidth="1"/>
+    <col min="2626" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>393</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4240,57 +4305,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="179.375" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="179.375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4303,10 +4368,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E77E3B7-09F3-4F75-BFE0-6A46DDF99D26}">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4349,6 +4414,69 @@
       <c r="A8" s="1" t="s">
         <v>189</v>
       </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4367,411 +4495,411 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="36" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="16" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="29" style="16" customWidth="1"/>
-    <col min="7" max="7" width="20.375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="50" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="34.375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="36" style="15" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="29" style="15" customWidth="1"/>
+    <col min="7" max="7" width="20.375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="50" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="15" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="16" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="16" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="16" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="15" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4792,67 +4920,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.5" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="42.5" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4874,122 +5002,122 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="143.375" style="6" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="143.375" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -5010,102 +5138,102 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="170.75" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="170.75" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5126,177 +5254,177 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="173.625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="173.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5309,62 +5437,63 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C250BF9-908F-45E4-83F3-738D527DA851}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="164" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="164" style="2"/>
-    <col min="2" max="2" width="22.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="164" style="2"/>
+    <col min="1" max="1" width="164" style="1"/>
+    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="164" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" s="27" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="4" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="5" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>389</v>
+    <row r="7" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -5376,213 +5505,228 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65217592-1A9B-438A-95BF-153C4CB2E761}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A46" sqref="A46:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="151.375" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="151.375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="7"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
+      <c r="A30" s="8"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -5603,85 +5747,85 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="155.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="15.125" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="155.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="15.125" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>147</v>
       </c>
     </row>

--- a/状态机 链接 条件 说明.xlsx
+++ b/状态机 链接 条件 说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity project\Demo_M源文件\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0031D663-A5A3-4D88-913F-E856534EACD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6745D0-A78F-4D19-8C69-6F90031EEF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="1110" windowWidth="18945" windowHeight="19680" tabRatio="929" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12300" yWindow="3330" windowWidth="32100" windowHeight="19680" tabRatio="929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="状态机 条件 链接" sheetId="1" r:id="rId1"/>
@@ -38,18 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="400">
   <si>
     <t>From</t>
   </si>
   <si>
     <t>To</t>
-  </si>
-  <si>
-    <t>条件 (Conditions)</t>
-  </si>
-  <si>
-    <t>Has Exit Time</t>
   </si>
   <si>
     <t>Interruption Source</t>
@@ -983,10 +977,6 @@
   </si>
   <si>
     <t>Trig_MagicUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Any State</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1458,6 +1448,18 @@
   </si>
   <si>
     <t>SkyPoint 先触碰ground 后 groundPoint 触碰 ground ，二者都触碰ground，就是地面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_magic_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件 (Conditions)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has Exit Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1666,13 +1668,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1683,12 +1691,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1971,11 +1973,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J238"/>
+  <dimension ref="A1:J239"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1999,28 +2001,28 @@
       <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="10"/>
-      <c r="I1" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="J1" s="23"/>
+      <c r="I1" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2030,164 +2032,164 @@
       <c r="G2" s="19"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="I4" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="13" t="s">
+    <row r="8" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -2197,506 +2199,506 @@
       <c r="G10" s="19"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J12" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="26"/>
+      <c r="B13" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+    <row r="14" spans="1:10" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="26"/>
+      <c r="B15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="26"/>
+      <c r="B18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="26"/>
+      <c r="B19" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="26"/>
+      <c r="B20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="26"/>
+      <c r="B21" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="26"/>
+      <c r="B23" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="10" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="26"/>
+      <c r="B24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="10" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26"/>
+      <c r="B25" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="I25" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="26"/>
+      <c r="B26" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="26"/>
+      <c r="B27" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="10" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="C28" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+      <c r="B29" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="10" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
+      <c r="B30" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="23"/>
+      <c r="B31" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="24"/>
+      <c r="B32" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="C32" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
+      <c r="B34" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="23"/>
+      <c r="B35" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="10" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="23"/>
+      <c r="B36" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="D36" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="23"/>
+      <c r="B37" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D23" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="10" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="D24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="10" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
-      <c r="B25" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="D25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="10" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="10" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D30" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D33" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="D34" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D35" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="10" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D36" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" s="10">
-        <v>0</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>198</v>
-      </c>
       <c r="E37" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E38" s="10">
         <v>0</v>
@@ -2704,7 +2706,7 @@
     </row>
     <row r="39" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -2716,24 +2718,24 @@
     </row>
     <row r="40" spans="1:8" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E40" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="10" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
-        <v>241</v>
+      <c r="A41" s="22" t="s">
+        <v>239</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D41" s="10" t="b">
         <v>1</v>
@@ -2743,12 +2745,12 @@
       </c>
     </row>
     <row r="42" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D42" s="10" t="b">
         <v>1</v>
@@ -2758,39 +2760,39 @@
       </c>
     </row>
     <row r="43" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E43" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E44" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E45" s="10">
         <v>1</v>
@@ -2798,7 +2800,7 @@
     </row>
     <row r="46" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -2809,166 +2811,166 @@
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D47" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="10">
+        <v>1</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="10" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="24"/>
+      <c r="B48" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="D48" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="23"/>
+      <c r="B50" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D50" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B47" s="10" t="s">
+    </row>
+    <row r="51" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="B51" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" s="10">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="23"/>
+      <c r="B52" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="10">
+        <v>0</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="23"/>
+      <c r="B53" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="10">
+        <v>0</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="10" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="24"/>
+      <c r="B54" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D47" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" s="10">
-        <v>1</v>
-      </c>
-      <c r="F47" s="10" t="s">
+      <c r="C54" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10">
+        <v>1</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="A56" s="24"/>
+      <c r="B56" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" s="10" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D48" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" s="10">
-        <v>1</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D49" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
-      <c r="B50" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="D50" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" s="10">
-        <v>0</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="22"/>
-      <c r="B51" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E51" s="10">
-        <v>0</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="22"/>
-      <c r="B52" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E52" s="10">
-        <v>0</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
-      <c r="B53" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="10">
-        <v>0</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="10" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E54" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D55" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E55" s="10">
-        <v>1</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>228</v>
-      </c>
       <c r="D56" s="10" t="b">
         <v>1</v>
       </c>
@@ -2976,12 +2978,12 @@
         <v>0</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -2992,79 +2994,79 @@
       <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
-        <v>193</v>
+      <c r="A58" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="B58" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="23"/>
+      <c r="B59" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="23"/>
+      <c r="B60" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E58" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
-      <c r="B59" s="10" t="s">
+      <c r="C60" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="23"/>
+      <c r="B61" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D59" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E59" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="22"/>
-      <c r="B60" s="10" t="s">
+      <c r="C61" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E61" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="24"/>
+      <c r="B62" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E60" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="22"/>
-      <c r="B61" s="10" t="s">
+      <c r="D62" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E61" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>239</v>
-      </c>
       <c r="E62" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="20" t="s">
-        <v>247</v>
+      <c r="A63" s="22" t="s">
+        <v>245</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D63" s="10" t="b">
         <v>0</v>
@@ -3074,36 +3076,36 @@
       </c>
     </row>
     <row r="64" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
+      <c r="A64" s="23"/>
       <c r="B64" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E64" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="22"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E65" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D66" s="10" t="b">
         <v>1</v>
@@ -3113,14 +3115,14 @@
       </c>
     </row>
     <row r="67" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="20" t="s">
-        <v>235</v>
+      <c r="A67" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D67" s="10" t="b">
         <v>1</v>
@@ -3130,12 +3132,12 @@
       </c>
     </row>
     <row r="68" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D68" s="10" t="b">
         <v>1</v>
@@ -3146,7 +3148,7 @@
     </row>
     <row r="69" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
@@ -3158,72 +3160,72 @@
     </row>
     <row r="70" spans="1:8" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E70" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="20" t="s">
-        <v>246</v>
+      <c r="A71" s="22" t="s">
+        <v>244</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="23"/>
+      <c r="B72" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E72" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="23"/>
+      <c r="B73" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E73" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="23"/>
+      <c r="B74" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D71" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E71" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="22"/>
-      <c r="B72" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E72" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="22"/>
-      <c r="B73" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E73" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
-      <c r="B74" s="10" t="s">
-        <v>237</v>
-      </c>
       <c r="C74" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E74" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D75" s="10" t="b">
         <v>1</v>
@@ -3234,72 +3236,72 @@
     </row>
     <row r="76" spans="1:8" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E76" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="20" t="s">
-        <v>249</v>
+      <c r="A77" s="22" t="s">
+        <v>247</v>
       </c>
       <c r="B77" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="23"/>
+      <c r="B78" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E78" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="23"/>
+      <c r="B79" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D77" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="22"/>
-      <c r="B78" s="10" t="s">
+      <c r="C79" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E79" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="23"/>
+      <c r="B80" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E78" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="22"/>
-      <c r="B79" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E79" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="22"/>
-      <c r="B80" s="10" t="s">
-        <v>236</v>
-      </c>
       <c r="C80" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E80" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" s="10" t="b">
         <v>1</v>
@@ -3310,7 +3312,7 @@
     </row>
     <row r="82" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -3321,109 +3323,109 @@
       <c r="H82" s="14"/>
     </row>
     <row r="83" spans="1:8" s="10" customFormat="1" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="20" t="s">
-        <v>242</v>
+      <c r="A83" s="22" t="s">
+        <v>240</v>
       </c>
       <c r="B83" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E83" s="10">
+        <v>1</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="24"/>
+      <c r="B84" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D84" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D85" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="23"/>
+      <c r="B86" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E86" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="23"/>
+      <c r="B87" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E87" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="23"/>
+      <c r="B88" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E88" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="23"/>
+      <c r="B89" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E89" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="24"/>
+      <c r="B90" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D90" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="E83" s="10">
-        <v>1</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="21"/>
-      <c r="B84" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D84" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E84" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D85" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E85" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="22"/>
-      <c r="B86" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="E86" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="22"/>
-      <c r="B87" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E87" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="22"/>
-      <c r="B88" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E88" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="22"/>
-      <c r="B89" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E89" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="10" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="21"/>
-      <c r="B90" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="E90" s="10">
         <v>0</v>
@@ -3431,10 +3433,10 @@
     </row>
     <row r="91" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E91" s="10">
         <v>1</v>
@@ -3442,7 +3444,7 @@
     </row>
     <row r="92" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -3453,29 +3455,29 @@
       <c r="H92" s="14"/>
     </row>
     <row r="93" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D93" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="24"/>
+      <c r="B94" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D93" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E93" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="21"/>
-      <c r="B94" s="10" t="s">
-        <v>254</v>
-      </c>
       <c r="C94" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E94" s="10">
         <v>0</v>
@@ -3483,13 +3485,13 @@
     </row>
     <row r="95" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D95" s="10" t="b">
         <v>1</v>
@@ -3500,51 +3502,51 @@
     </row>
     <row r="96" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E96" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="20" t="s">
-        <v>255</v>
+      <c r="A97" s="22" t="s">
+        <v>253</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E97" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="22"/>
+      <c r="A98" s="23"/>
       <c r="B98" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E98" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="22"/>
+      <c r="A99" s="23"/>
       <c r="B99" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D99" s="10" t="b">
         <v>0</v>
@@ -3554,12 +3556,12 @@
       </c>
     </row>
     <row r="100" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="22"/>
+      <c r="A100" s="23"/>
       <c r="B100" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D100" s="10" t="b">
         <v>1</v>
@@ -3568,151 +3570,148 @@
         <v>0</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="21"/>
+      <c r="A101" s="23"/>
       <c r="B101" s="10" t="s">
-        <v>224</v>
+        <v>397</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E101" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="14"/>
-    </row>
-    <row r="103" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D103" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E103" s="10">
-        <v>1</v>
-      </c>
+    <row r="102" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="24"/>
+      <c r="B102" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E102" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="14"/>
     </row>
     <row r="104" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="21"/>
+      <c r="A104" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D104" s="10" t="b">
+        <v>0</v>
+      </c>
       <c r="E104" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D105" s="10" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="24"/>
       <c r="E105" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D106" s="10" t="b">
+        <v>0</v>
+      </c>
       <c r="E106" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="14"/>
-    </row>
-    <row r="108" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E108" s="10">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="24"/>
+      <c r="E107" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="14"/>
     </row>
     <row r="109" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="22"/>
-      <c r="B109" s="10" t="s">
+      <c r="A109" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="23"/>
+      <c r="B110" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E110" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="23"/>
+      <c r="B111" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C111" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E109" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="22"/>
-      <c r="B110" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E110" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="22"/>
-      <c r="B111" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D111" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="E111" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="22"/>
+      <c r="A112" s="23"/>
       <c r="B112" s="10" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D112" s="10" t="b">
         <v>1</v>
@@ -3721,13 +3720,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A113" s="22"/>
+    <row r="113" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="23"/>
       <c r="B113" s="10" t="s">
         <v>191</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D113" s="10" t="b">
         <v>1</v>
@@ -3735,130 +3734,144 @@
       <c r="E113" s="10">
         <v>0</v>
       </c>
-      <c r="F113" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A114" s="21"/>
+    </row>
+    <row r="114" spans="1:8" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="A114" s="23"/>
       <c r="B114" s="10" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="D114" s="10" t="b">
         <v>1</v>
       </c>
       <c r="E114" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="24"/>
+      <c r="B115" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D115" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="14"/>
+    </row>
+    <row r="117" spans="1:8" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="14"/>
-    </row>
-    <row r="116" spans="1:8" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="10" t="s">
+      <c r="B117" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D117" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D118" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E118" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="24"/>
+      <c r="B119" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E119" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="B116" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D116" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E116" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="B117" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D117" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E117" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="21"/>
-      <c r="B118" s="10" t="s">
+      <c r="B121" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D121" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="24"/>
+      <c r="B122" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C118" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E118" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="D120" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="21"/>
-      <c r="B121" s="10" t="s">
+      <c r="C122" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D122" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D121" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="14"/>
-    </row>
-    <row r="123" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="14"/>
+    </row>
     <row r="124" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
     <row r="125" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
     <row r="126" spans="1:8" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
@@ -3974,8 +3987,25 @@
     <row r="236" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
     <row r="237" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
     <row r="238" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
+    <row r="239" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A109:A115"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A85:A90"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A38"/>
     <mergeCell ref="A58:A62"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A22:A27"/>
@@ -3986,22 +4016,6 @@
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A85:A90"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4027,82 +4041,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4128,47 +4142,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4196,88 +4210,88 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
@@ -4285,7 +4299,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -4311,52 +4325,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4370,7 +4384,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -4382,57 +4396,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -4509,398 +4523,398 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>335</v>
-      </c>
       <c r="G1" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>331</v>
-      </c>
       <c r="H6" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>336</v>
-      </c>
       <c r="G7" s="15" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>346</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>333</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>333</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -4926,62 +4940,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -5008,117 +5022,117 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5144,97 +5158,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5260,172 +5274,172 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -5450,50 +5464,50 @@
     <col min="3" max="16384" width="164" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="27" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+    <row r="1" spans="1:1" s="21" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27" t="s">
-        <v>395</v>
+    <row r="9" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -5519,42 +5533,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -5562,42 +5576,42 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -5605,22 +5619,22 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
@@ -5628,22 +5642,22 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
@@ -5651,82 +5665,82 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -5756,77 +5770,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
